--- a/biology/Zoologie/Hypsiboas_raniceps/Hypsiboas_raniceps.xlsx
+++ b/biology/Zoologie/Hypsiboas_raniceps/Hypsiboas_raniceps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypsiboas raniceps est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypsiboas raniceps est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre jusqu'à 400 m d'altitude en Argentine, en Bolivie, au Brésil, en Colombie, en Guyane, au Paraguay et au Venezuela[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre jusqu'à 400 m d'altitude en Argentine, en Bolivie, au Brésil, en Colombie, en Guyane, au Paraguay et au Venezuela,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cope, 1862 : Catalogues of the Reptiles Obtained during the Explorations of the Parana, Paraguay, Vermejo and Uraguay Rivers, by Capt. Thos. J. Page, U. S. N.; And of Those Procured by Lieut. N. Michler, U. S. Top. Eng., Commander of the Expedition Conducting the Survey of the Atrato River. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 14, p. 346-359 &amp; 594 (texte intégral).</t>
         </is>
